--- a/va_facility_data_2025-02-20/Texarkana VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Texarkana%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Texarkana VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Texarkana%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R71e1af3f6e274991a1699026acd8a4fd"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R6c9f468a64a949ba9926beb7dec1325d"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R793e694f622949eabb98e1569949cbd6"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R437a36c59d3f471aa9059dc8d28ea498"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rbf1b457bf2e241bd8edd8c5d1b08f9b2"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R88202d26f8c7408c9a43c965464cc65f"/>
   </x:sheets>
 </x:workbook>
 </file>
